--- a/Libraries/Vehicle/Body/CAD/sm_car_data_BodyGeometry_CAD.xlsx
+++ b/Libraries/Vehicle/Body/CAD/sm_car_data_BodyGeometry_CAD.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D6DA3C-E69A-4A1D-91F4-F093D87B2EDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056B104B-9F31-49E3-8988-77CE9AD02570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="747" activeTab="3" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="1830" yWindow="1770" windowWidth="17280" windowHeight="10215" tabRatio="747" firstSheet="1" activeTab="5" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId1"/>
     <sheet name="Sedan_Hamba" sheetId="5" r:id="rId2"/>
     <sheet name="Bus_Makhulu" sheetId="6" r:id="rId3"/>
-    <sheet name="Trailer_Thwala" sheetId="7" r:id="rId4"/>
+    <sheet name="Truck_Amandla" sheetId="8" r:id="rId4"/>
+    <sheet name="Trailer_Thwala" sheetId="7" r:id="rId5"/>
+    <sheet name="Trailer_Kumanzi" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
   <si>
     <t>Units</t>
   </si>
@@ -124,6 +128,12 @@
   </si>
   <si>
     <t>CAD_Trailer_Thwala</t>
+  </si>
+  <si>
+    <t>CAD_Truck_Amandla</t>
+  </si>
+  <si>
+    <t>CAD_Trailer_Kumanzi</t>
   </si>
 </sst>
 </file>
@@ -1182,13 +1192,184 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE4D704-5D01-4BEC-AE3E-39751282F923}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D447CB4-32A3-4130-93CB-03404068CA94}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -1366,4 +1547,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A871DEFC-AE1B-4AFA-B5D1-F77E18FC86DA}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="15">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Libraries/Vehicle/Body/CAD/sm_car_data_BodyGeometry_CAD.xlsx
+++ b/Libraries/Vehicle/Body/CAD/sm_car_data_BodyGeometry_CAD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Body\CAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Body\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056B104B-9F31-49E3-8988-77CE9AD02570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D47D41A-AD98-40DA-84EB-837C9F8F4B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1770" windowWidth="17280" windowHeight="10215" tabRatio="747" firstSheet="1" activeTab="5" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="5640" yWindow="2805" windowWidth="19635" windowHeight="11295" tabRatio="747" firstSheet="1" activeTab="6" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Truck_Amandla" sheetId="8" r:id="rId4"/>
     <sheet name="Trailer_Thwala" sheetId="7" r:id="rId5"/>
     <sheet name="Trailer_Kumanzi" sheetId="9" r:id="rId6"/>
+    <sheet name="FSAE_Achilles" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="35">
   <si>
     <t>Units</t>
   </si>
@@ -134,6 +135,15 @@
   </si>
   <si>
     <t>CAD_Trailer_Kumanzi</t>
+  </si>
+  <si>
+    <t>AeroColor</t>
+  </si>
+  <si>
+    <t>AeroOpacity</t>
+  </si>
+  <si>
+    <t>CAD_FSAE_Achilles</t>
   </si>
 </sst>
 </file>
@@ -198,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -207,19 +217,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -229,17 +236,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -260,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -300,7 +306,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -406,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -548,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,18 +575,18 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -600,150 +606,144 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="18" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="18" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>-2.0499999999999998</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>-0.1</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>0.2</v>
       </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>0.2</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <v>0.4</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="13">
         <v>0.6</v>
       </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14">
         <v>0.3</v>
       </c>
-      <c r="L10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -766,18 +766,18 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -797,218 +797,210 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>-1.5</v>
       </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
         <v>0.81</v>
       </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>0.37</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>0.68</v>
       </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <v>0.3</v>
       </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="18" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="18" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>-1.6379999999999999</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <v>1.0585</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <v>0.72499999999999998</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="15">
+      <c r="M11" s="13">
         <v>-1.6379999999999999</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="13">
         <v>1.0585</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="13">
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
         <f>PI()/2</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="15">
-        <v>0</v>
-      </c>
-      <c r="N12" s="15">
-        <v>0</v>
-      </c>
-      <c r="O12" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N20">
         <f>281/2.54</f>
         <v>110.62992125984252</v>
@@ -1025,28 +1017,28 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:H8"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1066,124 +1058,119 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>0.85</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>1</v>
       </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <v>0.3</v>
       </c>
-      <c r="L8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1196,7 +1183,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1206,18 +1193,18 @@
       <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1237,124 +1224,119 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>0.6</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>0.8</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>1</v>
       </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <v>1</v>
       </c>
-      <c r="L8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1367,7 +1349,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1377,18 +1359,18 @@
       <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1408,140 +1390,135 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>0.6</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>0.6</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>0.6</v>
       </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <v>0.3</v>
       </c>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1554,9 +1531,9 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -1564,18 +1541,18 @@
       <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1595,124 +1572,319 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <v>0.75</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="13">
         <v>5.5E-2</v>
       </c>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
         <v>0.5</v>
       </c>
-      <c r="L8" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1645B8-165C-4143-A606-601513053131}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="13">
+        <v>-0.53749999999999998</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Libraries/Vehicle/Body/CAD/sm_car_data_BodyGeometry_CAD.xlsx
+++ b/Libraries/Vehicle/Body/CAD/sm_car_data_BodyGeometry_CAD.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Body\CAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Body\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D47D41A-AD98-40DA-84EB-837C9F8F4B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A3ED76-DB82-4CBC-A604-0EE2A5C3B93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="2805" windowWidth="19635" windowHeight="11295" tabRatio="747" firstSheet="1" activeTab="6" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="32670" yWindow="1740" windowWidth="24390" windowHeight="11295" tabRatio="853" activeTab="2" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId1"/>
     <sheet name="Sedan_Hamba" sheetId="5" r:id="rId2"/>
     <sheet name="Bus_Makhulu" sheetId="6" r:id="rId3"/>
     <sheet name="Truck_Amandla" sheetId="8" r:id="rId4"/>
-    <sheet name="Trailer_Thwala" sheetId="7" r:id="rId5"/>
-    <sheet name="Trailer_Kumanzi" sheetId="9" r:id="rId6"/>
-    <sheet name="FSAE_Achilles" sheetId="10" r:id="rId7"/>
+    <sheet name="Truck_Rhuqa" sheetId="12" r:id="rId5"/>
+    <sheet name="Trailer_Thwala" sheetId="7" r:id="rId6"/>
+    <sheet name="Trailer_Kumanzi" sheetId="9" r:id="rId7"/>
+    <sheet name="Trailer_Kumanzi_10m" sheetId="13" r:id="rId8"/>
+    <sheet name="FSAE_Achilles" sheetId="10" r:id="rId9"/>
+    <sheet name="CAD" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="46">
   <si>
     <t>Units</t>
   </si>
@@ -107,18 +110,9 @@
     <t>rad</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>CAD_Sedan_Hamba</t>
   </si>
   <si>
-    <t>Sedan_Hamba_Body.stl</t>
-  </si>
-  <si>
     <t>CAD_Sedan_HambaLG</t>
   </si>
   <si>
@@ -144,6 +138,48 @@
   </si>
   <si>
     <t>CAD_FSAE_Achilles</t>
+  </si>
+  <si>
+    <t>GlassOpacity</t>
+  </si>
+  <si>
+    <t>CAD_Sedan</t>
+  </si>
+  <si>
+    <t>Sedan_Hamba_Body.STL</t>
+  </si>
+  <si>
+    <t>CAD_Truck_Rhuqa</t>
+  </si>
+  <si>
+    <t>TrimColor</t>
+  </si>
+  <si>
+    <t>FenderColor</t>
+  </si>
+  <si>
+    <t>ChassisColor</t>
+  </si>
+  <si>
+    <t>CAD_Trailer_Kumanzi_10m</t>
+  </si>
+  <si>
+    <t>sCGCabin</t>
+  </si>
+  <si>
+    <t>kg*m^2</t>
+  </si>
+  <si>
+    <t>Moments of Inertia [Ixx Iyy Izz]</t>
+  </si>
+  <si>
+    <t>JCabin</t>
+  </si>
+  <si>
+    <t>mCabin</t>
+  </si>
+  <si>
+    <t>kg</t>
   </si>
 </sst>
 </file>
@@ -572,7 +608,7 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:H10"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +667,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -657,7 +693,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -751,19 +787,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC63BC58-1A78-4D4B-9FF2-29C474DD47C9}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C4B486-306C-40D3-8B4E-BC8ADAAF7BF3}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +858,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -836,175 +872,114 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
-      <c r="D5" t="s">
-        <v>8</v>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
       <c r="F5" s="13">
-        <v>-1.5</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G5" s="13">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="H5" s="13">
-        <v>0.81</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="13">
-        <f>PI()/2</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.37</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0.68</v>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14">
-        <v>0.3</v>
-      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="13">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="G9" s="13">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="H9" s="13">
+        <v>-3.3</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="16"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="13">
-        <v>-1.6379999999999999</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1.0585</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="M11" s="13">
-        <v>-1.6379999999999999</v>
-      </c>
-      <c r="N11" s="13">
-        <v>1.0585</v>
-      </c>
-      <c r="O11" s="13">
-        <v>0.76500000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <f>PI()/2</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N20">
-        <f>281/2.54</f>
-        <v>110.62992125984252</v>
-      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1012,19 +987,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB5F770-A09D-476E-B9C5-02134F3871FC}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC63BC58-1A78-4D4B-9FF2-29C474DD47C9}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1058,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1097,7 +1072,150 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.37</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB5F770-A09D-476E-B9C5-02134F3871FC}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1169,6 +1287,21 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14">
         <v>0.3</v>
       </c>
     </row>
@@ -1249,7 +1382,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1263,7 +1396,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1345,6 +1478,285 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3479E58-D7A0-490C-B28D-B9B33BB41059}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1300</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1200</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D447CB4-32A3-4130-93CB-03404068CA94}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1415,7 +1827,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1429,7 +1841,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1526,7 +1938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A871DEFC-AE1B-4AFA-B5D1-F77E18FC86DA}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1597,7 +2009,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1611,7 +2023,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1692,14 +2104,218 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3425916A-F68D-4F13-A4D7-6386F7654774}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1645B8-165C-4143-A606-601513053131}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -1763,7 +2379,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1777,7 +2393,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1854,7 +2470,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1873,7 +2489,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>

--- a/Libraries/Vehicle/Body/CAD/sm_car_data_BodyGeometry_CAD.xlsx
+++ b/Libraries/Vehicle/Body/CAD/sm_car_data_BodyGeometry_CAD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Body\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A3ED76-DB82-4CBC-A604-0EE2A5C3B93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC21EF7-2947-4F83-94A5-D76AA73B2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32670" yWindow="1740" windowWidth="24390" windowHeight="11295" tabRatio="853" activeTab="2" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="29040" yWindow="1395" windowWidth="26745" windowHeight="11295" tabRatio="853" activeTab="8" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="49">
   <si>
     <t>Units</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>kg</t>
+  </si>
+  <si>
+    <t>EmblemColor</t>
+  </si>
+  <si>
+    <t>sWall2Wall</t>
+  </si>
+  <si>
+    <t>For calculating cornering radius wall-to-wall</t>
   </si>
 </sst>
 </file>
@@ -601,14 +610,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,6 +790,28 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>0.76</v>
+      </c>
+      <c r="G11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -792,14 +823,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,6 +1012,28 @@
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
     </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -992,14 +1045,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,6 +1177,47 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1135,14 +1229,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,6 +1399,28 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10">
+        <v>1.8</v>
+      </c>
+      <c r="G10">
+        <v>1.05</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1316,14 +1432,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,6 +1587,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.4</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1482,14 +1620,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,6 +1886,28 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14">
         <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15">
+        <v>1.31</v>
+      </c>
+      <c r="G15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -2313,14 +2473,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,6 +2662,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>0.87</v>
+      </c>
+      <c r="G11">
+        <v>0.72</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Libraries/Vehicle/Body/CAD/sm_car_data_BodyGeometry_CAD.xlsx
+++ b/Libraries/Vehicle/Body/CAD/sm_car_data_BodyGeometry_CAD.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Body\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC21EF7-2947-4F83-94A5-D76AA73B2E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB188019-299C-4E0A-B793-1F5D1C3E7A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="1395" windowWidth="26745" windowHeight="11295" tabRatio="853" activeTab="8" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
+    <workbookView xWindow="30570" yWindow="1875" windowWidth="21555" windowHeight="11295" tabRatio="853" activeTab="3" xr2:uid="{06440896-8E0F-4240-830D-6ADD843B9DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG" sheetId="1" r:id="rId1"/>
     <sheet name="Sedan_Hamba" sheetId="5" r:id="rId2"/>
     <sheet name="Bus_Makhulu" sheetId="6" r:id="rId3"/>
-    <sheet name="Truck_Amandla" sheetId="8" r:id="rId4"/>
-    <sheet name="Truck_Rhuqa" sheetId="12" r:id="rId5"/>
-    <sheet name="Trailer_Thwala" sheetId="7" r:id="rId6"/>
-    <sheet name="Trailer_Kumanzi" sheetId="9" r:id="rId7"/>
-    <sheet name="Trailer_Kumanzi_10m" sheetId="13" r:id="rId8"/>
-    <sheet name="FSAE_Achilles" sheetId="10" r:id="rId9"/>
-    <sheet name="CAD" sheetId="11" r:id="rId10"/>
+    <sheet name="SUV_Landy" sheetId="14" r:id="rId4"/>
+    <sheet name="Truck_Amandla" sheetId="8" r:id="rId5"/>
+    <sheet name="Truck_Rhuqa" sheetId="12" r:id="rId6"/>
+    <sheet name="Trailer_Thwala" sheetId="7" r:id="rId7"/>
+    <sheet name="Trailer_Kumanzi" sheetId="9" r:id="rId8"/>
+    <sheet name="Trailer_Kumanzi_10m" sheetId="13" r:id="rId9"/>
+    <sheet name="FSAE_Achilles" sheetId="10" r:id="rId10"/>
+    <sheet name="CAD" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="50">
   <si>
     <t>Units</t>
   </si>
@@ -189,6 +190,9 @@
   </si>
   <si>
     <t>For calculating cornering radius wall-to-wall</t>
+  </si>
+  <si>
+    <t>CAD_SUV_Landy</t>
   </si>
 </sst>
 </file>
@@ -819,6 +823,228 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1645B8-165C-4143-A606-601513053131}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="13">
+        <v>-0.53749999999999998</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>0.87</v>
+      </c>
+      <c r="G11">
+        <v>0.72</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C4B486-306C-40D3-8B4E-BC8ADAAF7BF3}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1428,6 +1654,190 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321AA9E2-A264-4630-84E3-4CD8E161CDA0}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9">
+        <v>0.625</v>
+      </c>
+      <c r="G9">
+        <v>0.84</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE4D704-5D01-4BEC-AE3E-39751282F923}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1615,7 +2025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3479E58-D7A0-490C-B28D-B9B33BB41059}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1916,7 +2326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D447CB4-32A3-4130-93CB-03404068CA94}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -2098,7 +2508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A871DEFC-AE1B-4AFA-B5D1-F77E18FC86DA}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -2264,7 +2674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3425916A-F68D-4F13-A4D7-6386F7654774}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -2466,226 +2876,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1645B8-165C-4143-A606-601513053131}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="13">
-        <v>-0.53749999999999998</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="13">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11">
-        <v>0.87</v>
-      </c>
-      <c r="G11">
-        <v>0.72</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>